--- a/Assets/Editor/LevelData_Zombie.xlsx
+++ b/Assets/Editor/LevelData_Zombie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\prj\PVZ\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206253CF-885A-4CAB-87C0-3341A75AB8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642CA203-B8F2-4B05-B5D3-165267E46538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -500,52 +499,52 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -562,7 +561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -579,7 +578,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -596,7 +595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -613,7 +612,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -630,7 +629,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -647,7 +646,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -664,7 +663,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -694,317 +693,317 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>-1</v>
@@ -1013,6 +1012,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>